--- a/in/etl_example.xlsx
+++ b/in/etl_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29000" yWindow="-2180" windowWidth="25600" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,18 +60,9 @@
     <t>TARGET_TABLE_EXTRA_KEY_COLUMNS</t>
   </si>
   <si>
-    <t>DATA_PARTITION</t>
-  </si>
-  <si>
     <t>DATA_PARTITION_COLUMN</t>
   </si>
   <si>
-    <t>INDEX_DATA_PARTITION</t>
-  </si>
-  <si>
-    <t>INDEX_DATA_PARTITION_COLUMN</t>
-  </si>
-  <si>
     <t>STORED_PROCEDURE_NAME</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>MERGE3_&lt;TARGET_TABLE&gt;</t>
+  </si>
+  <si>
+    <t>DATA_PARTITION_FUNCTION</t>
+  </si>
+  <si>
+    <t>INDEX_PARTITION_FUNCTION</t>
+  </si>
+  <si>
+    <t>INDEX_PARTITION_COLUMN</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -603,84 +603,84 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
       </c>
       <c r="T2">
         <v>15</v>
@@ -692,57 +692,57 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
       </c>
       <c r="T3">
         <v>15</v>
@@ -754,57 +754,57 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
       </c>
       <c r="T4">
         <v>15</v>
@@ -816,57 +816,57 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
       </c>
       <c r="T5">
         <v>15</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/in/etl_example.xlsx
+++ b/in/etl_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="-32920" yWindow="-660" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>SOURCE_SERVER</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>INDEX_PARTITION_COLUMN</t>
+  </si>
+  <si>
+    <t>TARGET_TABLE_EXTRA_COLUMNS</t>
+  </si>
+  <si>
+    <t>D_LION_PropertyValue_ID;[varchar(80)] NOT NULL;S_LION.Get_LionPropertyValue_ID(source.PropertyDefinitionId, source.EntityTypeId, source.NewValue)|D_LION_PropertyValue_ID;[varchar(80)] NOT NULL;S_LION.Get_LionPropertyValue_ID(source.PropertyDefinitionId, source.EntityTypeId, source.NewValue)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,20 +555,21 @@
     <col min="10" max="10" width="18.1640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="33.5" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="25.5" customWidth="1"/>
-    <col min="19" max="19" width="33.6640625" customWidth="1"/>
-    <col min="20" max="20" width="31.33203125" customWidth="1"/>
-    <col min="21" max="21" width="31.5" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="35" customWidth="1"/>
+    <col min="14" max="14" width="51" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" customWidth="1"/>
+    <col min="18" max="18" width="31.1640625" customWidth="1"/>
+    <col min="19" max="19" width="25.5" customWidth="1"/>
+    <col min="20" max="20" width="33.6640625" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="31.5" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,37 +610,40 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -671,31 +681,34 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1440</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -732,32 +745,32 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>29</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>15</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1440</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -794,32 +807,32 @@
       <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>15</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1440</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -856,28 +869,28 @@
       <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>36</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>15</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1440</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>30</v>
       </c>
     </row>
